--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -70,6 +70,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,16 +1017,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>2378.41</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="6" t="n">
         <v>9455.66</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="6" t="n">
         <v>-545.1799999999999</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-125.28</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-419.9</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -860,8 +860,8 @@
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -877,22 +877,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>febrero</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
     </row>
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-102.23</v>
+        <v>5618.93</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5618.93</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2480.64</v>
+        <v>1930.27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1930.27</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>1906.46</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1906.46</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>-545.1799999999999</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-545.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="7">
       <c r="C7" s="6" t="n">
-        <v>2378.41</v>
+        <v>9455.66</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9455.66</v>
+        <v>-545.1799999999999</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-545.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,7 @@
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -895,6 +896,11 @@
           <t>junio</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +925,9 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -943,6 +952,9 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -967,6 +979,9 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -991,6 +1006,9 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1013,6 +1031,9 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,6 +1048,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +862,6 @@
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,11 +895,6 @@
           <t>junio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRESUPUESTO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,9 +919,6 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -952,9 +943,6 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -979,9 +967,6 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1006,9 +991,6 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1031,9 +1013,6 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,9 +1027,6 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>0 de 5</t>
+          <t>1 de 5</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
@@ -861,7 +861,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,6 +73,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1057,4 +1061,442 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>250.631825420901</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>250.631825420901</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>325.13</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>325.13</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>851.4299999999999</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-851.4299999999999</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>7774.1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>7774.1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHANDI ERAZO JOSUE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>13500.0018254209</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>851.4299999999999</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>12648.5718254209</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.06306888036094425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,19 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,47 +499,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRIFERIAS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INODOROS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>LAVABOS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LED</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PANELES DECORATIVOS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PORCELANATO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
         </is>
       </c>
     </row>
@@ -586,6 +610,18 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,15 +659,27 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>851.4299999999999</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,6 +730,18 @@
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -730,6 +790,18 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -778,6 +850,18 @@
       <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" s="4" t="inlineStr">
@@ -822,20 +906,40 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
           <t>1 de 5</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>-217.73</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>-217.73</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>851.4299999999999</v>
+        <v>633.6999999999999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
@@ -1184,9 +1184,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1524,13 +1524,13 @@
         <v>7774.1</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>-217.73</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7774.1</v>
+        <v>7991.83</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>-0.02800710050037946</v>
       </c>
     </row>
     <row r="15">
@@ -1591,13 +1591,13 @@
         <v>13500.0018254209</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>633.6999999999999</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12648.5718254209</v>
+        <v>12866.3018254209</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.06306888036094425</v>
+        <v>0.04694073439358535</v>
       </c>
     </row>
   </sheetData>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>157.15</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>2322.22</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -896,47 +896,47 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
+          <t>1 de 5</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
           <t>0 de 5</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>1 de 5</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>1 de 5</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
         </is>
       </c>
       <c r="R7" s="4" t="inlineStr">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-217.73</v>
+        <v>2261.64</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>633.6999999999999</v>
+        <v>3113.07</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
@@ -1356,13 +1356,13 @@
         <v>500</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>157.15</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>500</v>
+        <v>342.85</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="8">
@@ -1500,13 +1500,13 @@
         <v>483</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>2322.22</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>483</v>
+        <v>-1839.22</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0</v>
+        <v>4.807908902691511</v>
       </c>
     </row>
     <row r="14">
@@ -1591,13 +1591,13 @@
         <v>13500.0018254209</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>633.6999999999999</v>
+        <v>3113.07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12866.3018254209</v>
+        <v>10386.9318254209</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.04694073439358535</v>
+        <v>0.2305977465971891</v>
       </c>
     </row>
   </sheetData>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>157.15</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>-217.73</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2322.22</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>1 de 5</t>
+          <t>0 de 5</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>1 de 5</t>
+          <t>0 de 5</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="Q7" s="4" t="inlineStr">
         <is>
-          <t>1 de 5</t>
+          <t>0 de 5</t>
         </is>
       </c>
       <c r="R7" s="4" t="inlineStr">
@@ -967,9 +967,9 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -986,22 +986,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5618.93</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>2261.64</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2261.64</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1930.27</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1906.46</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>-545.1799999999999</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-545.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="7">
       <c r="C7" s="6" t="n">
-        <v>9455.66</v>
+        <v>-545.1799999999999</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-545.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>3113.07</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3113.07</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>

--- a/data/CHANDI ERAZO JOSUE.xlsx
+++ b/data/CHANDI ERAZO JOSUE.xlsx
@@ -1173,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,11 +1182,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1229,375 +1229,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240X80 PORCELANATO</t>
+          <t>OTROS</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FREGADEROS DE COCINA</t>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>250.631825420901</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>250.631825420901</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GRANITO</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>238.32</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>238.32</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GRIFERIAS</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>106.82</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>106.82</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>INODOROS</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>800</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>800</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAVABOS</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>157.15</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>342.85</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.3143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LED</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NO RESURTIBLES</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>325.13</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>325.13</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OTROS</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>851.4299999999999</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-851.4299999999999</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PANELES DECORATIVOS</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PANELES PU</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PANELES PVC</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>483</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>2322.22</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>-1839.22</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>4.807908902691511</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PORCELANATO</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>7774.1</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>-217.73</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>7991.83</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>-0.02800710050037946</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PUERTAS DE SEGURIDAD</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CHANDI ERAZO JOSUE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAL SOLUBLE</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>13500.0018254209</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>3113.07</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>10386.9318254209</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0.2305977465971891</v>
       </c>
     </row>
   </sheetData>
